--- a/with logs for unschedule with saturday sunday/excel_schedules/room_208_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_208_genetic_schedule.xlsx
@@ -546,7 +546,77 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>AT 413 - Advanced Thermodynamics
 3B
@@ -554,85 +624,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
+      <c r="B17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -640,6 +638,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -647,6 +646,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/room_208_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_208_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,132 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFFF"/>
+        <bgColor rgb="00E0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE4E1"/>
+        <bgColor rgb="00FFE4E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E0E6"/>
+        <bgColor rgb="00B0E0E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004682B4"/>
+        <bgColor rgb="004682B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2B48C"/>
+        <bgColor rgb="00D2B48C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ACD32"/>
+        <bgColor rgb="009ACD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040E0D0"/>
+        <bgColor rgb="0040E0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF69B4"/>
+        <bgColor rgb="00FF69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD5C5C"/>
+        <bgColor rgb="00CD5C5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000CED1"/>
+        <bgColor rgb="0000CED1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E90FF"/>
+        <bgColor rgb="001E90FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B22222"/>
+        <bgColor rgb="00B22222"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +205,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,6 +707,46 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>A2 ITE 111 - Introduction to Computing
+1A
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>A2 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,6 +754,11 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -532,6 +766,11 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -539,6 +778,38 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -546,6 +817,10 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="10" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -553,6 +828,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="10" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -588,6 +867,46 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F12" s="14" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -595,6 +914,11 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="12" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="14" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -602,6 +926,11 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
+      <c r="B14" s="11" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="12" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="14" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -609,6 +938,46 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>A1 IS 314 - Web Based Programming and Application
+3A
+Room 208
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -616,13 +985,11 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>AT 413 - Advanced Thermodynamics
-3B
-Room 208</t>
-        </is>
-      </c>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="12" t="n"/>
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -630,7 +997,11 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="12" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="18" t="n"/>
+      <c r="F17" s="17" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -638,7 +1009,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
+      <c r="E18" s="18" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -646,7 +1017,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -661,6 +1031,38 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="inlineStr">
+        <is>
+          <t>A1 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 208
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -668,6 +1070,10 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="20" t="n"/>
+      <c r="E22" s="21" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -675,6 +1081,10 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
+      <c r="B23" s="19" t="n"/>
+      <c r="C23" s="19" t="n"/>
+      <c r="D23" s="20" t="n"/>
+      <c r="E23" s="21" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -682,6 +1092,30 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
+      <c r="B24" s="22" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="D24" s="23" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E24" s="23" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -689,6 +1123,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
+      <c r="B25" s="22" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="E25" s="23" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -696,6 +1133,9 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="22" t="n"/>
+      <c r="D26" s="23" t="n"/>
+      <c r="E26" s="23" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -705,8 +1145,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B16:B19"/>
+  <mergeCells count="27">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
